--- a/Data_Set/CellPhoneSurvey.xlsx
+++ b/Data_Set/CellPhoneSurvey.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIS_STUFF\SUBJEK PENGAJARAN\MRTB1123_ODL Applied Statistisc for BI\Data Set\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7AF6BF-26F5-49DC-A789-6178441CA982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="255" windowWidth="5475" windowHeight="3810" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Description" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -128,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -202,14 +221,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -247,7 +269,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -319,7 +341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,22 +514,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -533,7 +555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -559,7 +581,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -585,7 +607,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -611,7 +633,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -637,7 +659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -663,7 +685,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -689,7 +711,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -715,7 +737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -741,7 +763,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -767,7 +789,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -793,7 +815,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -819,7 +841,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -845,7 +867,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -871,7 +893,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -897,7 +919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -923,7 +945,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -949,7 +971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -975,7 +997,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +1023,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1049,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1053,7 +1075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1101,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1105,7 +1127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1153,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1157,7 +1179,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1205,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1235,7 +1257,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1261,7 +1283,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1287,7 +1309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1313,7 +1335,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1339,7 +1361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1365,7 +1387,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1391,7 +1413,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1443,7 +1465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1469,7 +1491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1495,7 +1517,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1543,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1573,7 +1595,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1599,7 +1621,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1625,7 +1647,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1651,7 +1673,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1699,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1703,7 +1725,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1729,7 +1751,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1755,7 +1777,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1781,7 +1803,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1829,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1831,12 +1853,6 @@
       </c>
       <c r="H51">
         <v>240</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H52">
-        <f>AVERAGE(H1:H51)</f>
-        <v>135.28</v>
       </c>
     </row>
   </sheetData>
@@ -1847,61 +1863,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>33</v>
       </c>
